--- a/SOV_docs/American/American1_SOV.xlsx
+++ b/SOV_docs/American/American1_SOV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://amfam.sharepoint.com/sites/msteams_011fc7/Shared Documents/General/Agency Folder/A. client_files/falls_at_snoqualmie/Renewals/2025-2026/Quotes &amp; Apps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nadavkolevesoh/Documents/work/SOVParser/SOV_docs/American/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{1EF8E123-058D-4F0E-96C8-306CDF1B4EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04380E3A-6707-4AFB-8CBA-3A4EB596F068}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D443507-D949-BE4F-B184-56CC198C0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCF305F0-349C-4D87-A478-A3B96EF1B28B}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18060" xr2:uid="{FCF305F0-349C-4D87-A478-A3B96EF1B28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="123">
   <si>
     <t>Building Attributes</t>
   </si>
@@ -421,12 +421,6 @@
   </si>
   <si>
     <t>Garage SQ FT</t>
-  </si>
-  <si>
-    <t>Sign</t>
-  </si>
-  <si>
-    <t>Mailboxes</t>
   </si>
 </sst>
 </file>
@@ -980,57 +974,58 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BB32C3-2428-4251-BE55-DF82EA5779E4}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BY20"/>
+  <dimension ref="A1:BY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BA18" sqref="BA18"/>
+    <sheetView tabSelected="1" topLeftCell="AM7" zoomScale="93" workbookViewId="0">
+      <selection activeCell="AY13" sqref="AY13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="3" max="3" width="39.81640625" customWidth="1"/>
-    <col min="4" max="4" width="42.54296875" customWidth="1"/>
-    <col min="8" max="8" width="17.1796875" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" customWidth="1"/>
-    <col min="11" max="12" width="11.81640625" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" customWidth="1"/>
-    <col min="22" max="22" width="13.6328125" customWidth="1"/>
-    <col min="23" max="23" width="22.08984375" customWidth="1"/>
-    <col min="41" max="41" width="13.1796875" customWidth="1"/>
-    <col min="44" max="44" width="11.81640625" customWidth="1"/>
-    <col min="50" max="50" width="11.1796875" customWidth="1"/>
-    <col min="51" max="51" width="15.453125" customWidth="1"/>
-    <col min="53" max="53" width="11.81640625" customWidth="1"/>
-    <col min="54" max="54" width="13.54296875" customWidth="1"/>
-    <col min="55" max="55" width="12.453125" customWidth="1"/>
-    <col min="56" max="56" width="13.54296875" customWidth="1"/>
-    <col min="57" max="57" width="13.1796875" customWidth="1"/>
-    <col min="58" max="58" width="15.81640625" customWidth="1"/>
-    <col min="59" max="59" width="12.453125" customWidth="1"/>
-    <col min="61" max="61" width="11.54296875" customWidth="1"/>
-    <col min="63" max="63" width="11.81640625" customWidth="1"/>
-    <col min="64" max="64" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="39.83203125" customWidth="1"/>
+    <col min="4" max="4" width="42.5" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15.5" customWidth="1"/>
+    <col min="11" max="12" width="11.83203125" customWidth="1"/>
+    <col min="17" max="17" width="9.5" customWidth="1"/>
+    <col min="19" max="19" width="15.1640625" customWidth="1"/>
+    <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="22.1640625" customWidth="1"/>
+    <col min="41" max="41" width="13.1640625" customWidth="1"/>
+    <col min="44" max="44" width="11.83203125" customWidth="1"/>
+    <col min="50" max="50" width="11.1640625" customWidth="1"/>
+    <col min="51" max="51" width="15.5" customWidth="1"/>
+    <col min="52" max="52" width="13.83203125" customWidth="1"/>
+    <col min="53" max="53" width="11.83203125" customWidth="1"/>
+    <col min="54" max="54" width="13.5" customWidth="1"/>
+    <col min="55" max="55" width="12.5" customWidth="1"/>
+    <col min="56" max="56" width="13.5" customWidth="1"/>
+    <col min="57" max="57" width="13.1640625" customWidth="1"/>
+    <col min="58" max="58" width="15.83203125" customWidth="1"/>
+    <col min="59" max="59" width="12.5" customWidth="1"/>
+    <col min="61" max="61" width="11.5" customWidth="1"/>
+    <col min="63" max="63" width="11.83203125" customWidth="1"/>
+    <col min="64" max="64" width="11.5" customWidth="1"/>
     <col min="65" max="65" width="14" customWidth="1"/>
-    <col min="66" max="66" width="12.1796875" customWidth="1"/>
-    <col min="73" max="73" width="14.1796875" customWidth="1"/>
-    <col min="74" max="74" width="11.453125" customWidth="1"/>
-    <col min="75" max="75" width="12.1796875" customWidth="1"/>
-    <col min="76" max="76" width="11.81640625" customWidth="1"/>
+    <col min="66" max="66" width="12.1640625" customWidth="1"/>
+    <col min="73" max="73" width="14.1640625" customWidth="1"/>
+    <col min="74" max="74" width="11.5" customWidth="1"/>
+    <col min="75" max="75" width="12.1640625" customWidth="1"/>
+    <col min="76" max="76" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.2">
       <c r="C2" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:77" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1119,7 +1114,7 @@
       <c r="BX4" s="2"/>
       <c r="BY4" s="2"/>
     </row>
-    <row r="5" spans="1:77" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:77" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1352,7 +1347,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:77" s="15" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:77" s="15" customFormat="1" ht="19.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -1529,7 +1524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="11">
         <v>2</v>
@@ -1700,7 +1695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="11">
         <v>3</v>
@@ -1871,7 +1866,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="11">
         <v>4</v>
@@ -2042,7 +2037,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="11">
         <v>5</v>
@@ -2213,7 +2208,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="11"/>
       <c r="B11" s="11">
         <v>6</v>
@@ -2384,7 +2379,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="11">
         <v>7</v>
@@ -2555,7 +2550,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="11"/>
       <c r="B13" s="11">
         <v>8</v>
@@ -2726,7 +2721,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
       <c r="B14" s="11">
         <v>9</v>
@@ -2897,7 +2892,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
       <c r="B15" s="11">
         <v>10</v>
@@ -3068,7 +3063,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
       <c r="B16" s="11">
         <v>11</v>
@@ -3239,7 +3234,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:77" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:77" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
       <c r="B17" s="11">
         <v>12</v>
@@ -3410,214 +3405,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:77" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="11">
-        <v>7500</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
-      <c r="AH18" s="13"/>
-      <c r="AI18" s="13"/>
-      <c r="AJ18" s="13"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="13"/>
-      <c r="AO18" s="12"/>
-      <c r="AP18" s="13"/>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="13"/>
-      <c r="AS18" s="13"/>
-      <c r="AT18" s="13"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="13"/>
-      <c r="AW18" s="13"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
-      <c r="BK18" s="11"/>
-      <c r="BL18" s="11"/>
-      <c r="BM18" s="11"/>
-      <c r="BN18" s="11"/>
-      <c r="BO18" s="11"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="11"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="11"/>
-      <c r="BU18" s="11"/>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-    </row>
-    <row r="19" spans="1:77" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="11">
-        <v>10000</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="13"/>
-      <c r="AG19" s="13"/>
-      <c r="AH19" s="13"/>
-      <c r="AI19" s="13"/>
-      <c r="AJ19" s="13"/>
-      <c r="AK19" s="11"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="11"/>
-      <c r="AN19" s="13"/>
-      <c r="AO19" s="12"/>
-      <c r="AP19" s="13"/>
-      <c r="AQ19" s="13"/>
-      <c r="AR19" s="13"/>
-      <c r="AS19" s="13"/>
-      <c r="AT19" s="13"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="13"/>
-      <c r="AW19" s="13"/>
-      <c r="AX19" s="11"/>
-      <c r="AY19" s="14"/>
-      <c r="AZ19" s="11"/>
-      <c r="BA19" s="11"/>
-      <c r="BB19" s="14"/>
-      <c r="BC19" s="11"/>
-      <c r="BD19" s="11"/>
-      <c r="BE19" s="11"/>
-      <c r="BF19" s="11"/>
-      <c r="BG19" s="11"/>
-      <c r="BH19" s="11"/>
-      <c r="BI19" s="11"/>
-      <c r="BJ19" s="11"/>
-      <c r="BK19" s="11"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
-      <c r="BP19" s="11"/>
-      <c r="BQ19" s="11"/>
-      <c r="BR19" s="11"/>
-      <c r="BS19" s="11"/>
-      <c r="BT19" s="11"/>
-      <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-    </row>
-    <row r="20" spans="1:77" x14ac:dyDescent="0.35">
-      <c r="H20" s="16">
-        <f>SUM(H6:H19)</f>
-        <v>29963500</v>
-      </c>
-      <c r="M20">
-        <f>SUM(M6:M19)</f>
+    <row r="18" spans="1:77" x14ac:dyDescent="0.2">
+      <c r="H18" s="16">
+        <f>SUM(H6:H17)</f>
+        <v>29946000</v>
+      </c>
+      <c r="M18">
+        <f>SUM(M6:M17)</f>
         <v>93343</v>
       </c>
-      <c r="N20">
-        <f>SUM(N6:N19)</f>
+      <c r="N18">
+        <f>SUM(N6:N17)</f>
         <v>37950</v>
       </c>
-      <c r="O20">
-        <f>SUM(O6:O19)</f>
+      <c r="O18">
+        <f>SUM(O6:O17)</f>
         <v>131293</v>
       </c>
-      <c r="AY20" s="16" t="s">
+      <c r="AY18" s="16" t="s">
         <v>81</v>
       </c>
     </row>
@@ -3648,15 +3453,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088340BF0BBBDF64E92551118CCA5E54D" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ee5e421428b024a375f5fa18da871e7c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4176820d-ae53-4719-b4a5-f5db7559e290" xmlns:ns3="f07443f0-4366-4d54-a4ae-66d2b7dc21f1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d38500208b9a476723cc045f15240763" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3908,6 +3704,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80CF4C7F-E97E-4818-B02C-EC016663F6BD}">
   <ds:schemaRefs>
@@ -3921,14 +3726,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105BC57F-115A-4875-B756-3B77621AD052}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1520DB42-273C-4E22-92C9-D505751B1DA2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3948,6 +3745,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{105BC57F-115A-4875-B756-3B77621AD052}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cb77d9-abb9-4391-b661-af04a886e4bd}" enabled="1" method="Privileged" siteId="{b6b2f512-6fd0-42fe-9659-6c5ee67da460}" removed="0"/>
